--- a/medicine/Psychotrope/Brasserie_De_Leite/Brasserie_De_Leite.xlsx
+++ b/medicine/Psychotrope/Brasserie_De_Leite/Brasserie_De_Leite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brasserie De Leite (en néerlandais : Brouwerij De Leite) est une brasserie artisanale belge située à Ruddervoorde dans la commune d'Oostkamp  entre Bruges et Roulers, en province de Flandre-Occidentale. 
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie est fondée en avril 2008 par le brasseur amateur Luc Vermeersch, en collaboration avec Etienne Van poucke et Paul Vanneste. Les deux premiers avaient suivi un cours de brassage à la brasserie Alvinne. En février 2011, la capacité de la brasserie est élargie avec de plus grandes chaudières de brassage. La brasserie dispose d’une marmite à ébullition de 62,5 hl, d’un bol à filtre de maïs d’une capacité de 80 hl (dans laquelle sont habituellement brassées 30 hl), d’un réservoir de levure refroidie d’un volume de 50 hl et d’un réservoir de 60 hl. La première bière commercialisée était la Femme Fatale, une bière blonde, légèrement ambrée titrant 6,5% en volume d'alcool.
 </t>
@@ -543,7 +557,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bien que située en région flamande, la brasserie produit une dizaine de bières qui ont la particularité de porter des noms de personnages en langue française :
 Femme Fatale, bière blonde ambrée, 6,5%
